--- a/Configuration/UserData.xlsx
+++ b/Configuration/UserData.xlsx
@@ -23,31 +23,31 @@
     <t>Email</t>
   </si>
   <si>
-    <t>mngr404848</t>
+    <t>mngr415893</t>
   </si>
   <si>
-    <t>asAhanY</t>
+    <t>zEzUrEh</t>
   </si>
   <si>
-    <t>FbtLV@gmail.com</t>
+    <t>eFKwa@gmail.com</t>
   </si>
   <si>
-    <t>mngr404849</t>
+    <t>mngr415895</t>
   </si>
   <si>
-    <t>YsypUnA</t>
+    <t>ytagAdY</t>
   </si>
   <si>
-    <t>wZvrU@gmail.com</t>
+    <t>GQRDp@gmail.com</t>
   </si>
   <si>
-    <t>mngr405069</t>
+    <t>mngr415896</t>
   </si>
   <si>
-    <t>mAnEgYv</t>
+    <t>agyjYzE</t>
   </si>
   <si>
-    <t>QPdha@gmail.com</t>
+    <t>beOgp@gmail.com</t>
   </si>
 </sst>
 </file>
